--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1113790.055804134</v>
+        <v>1113180.29574708</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230361.9932825532</v>
+        <v>230361.9932825534</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>319.6205266464564</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>349.0745662362114</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>108.7428291903012</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>56.90081876787143</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>210.7115744163708</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>286.2721000371766</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>93.1252028106677</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>8.129390960577897</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>62.99044699030303</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>356.3056953858214</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>91.19213562911382</v>
       </c>
       <c r="X10" t="n">
-        <v>23.33320437230325</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T11" t="n">
-        <v>217.259065536848</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U11" t="n">
         <v>256.6189776240556</v>
@@ -1466,7 +1466,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H12" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I13" t="n">
-        <v>85.90132644576698</v>
+        <v>9.504250209267635</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>105.7132848079374</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800594</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.65301062268134</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2590655368477</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6189776240555</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H15" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I16" t="n">
-        <v>85.90132644576698</v>
+        <v>41.59938884544064</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>225.0042027692449</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T17" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240564</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1940,7 +1940,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H18" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>145.5984949314709</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>86.18158324108965</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S19" t="n">
         <v>156.56410959728</v>
@@ -2058,7 +2058,7 @@
         <v>243.1546752508501</v>
       </c>
       <c r="U19" t="n">
-        <v>275.645275292109</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2590655368471</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U20" t="n">
         <v>256.6189776240556</v>
@@ -2177,7 +2177,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H21" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>30.73708636673044</v>
+        <v>11.98632317629143</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>137.9496946538981</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S22" t="n">
         <v>156.56410959728</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T23" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240555</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2383,7 +2383,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2414,7 +2414,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H24" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2532,7 +2532,7 @@
         <v>243.1546752508501</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>145.5984949314709</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.8435363787065</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T26" t="n">
         <v>217.2590655368476</v>
@@ -2651,7 +2651,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H27" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>243.1546752508501</v>
       </c>
       <c r="U28" t="n">
-        <v>275.645275292109</v>
+        <v>41.59938884544069</v>
       </c>
       <c r="V28" t="n">
-        <v>187.9897612555036</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T29" t="n">
         <v>217.2590655368476</v>
@@ -2888,7 +2888,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H30" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>11.98632317629143</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S31" t="n">
-        <v>60.46791780451421</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T31" t="n">
         <v>243.1546752508501</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.65301062268134</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T32" t="n">
         <v>217.2590655368476</v>
@@ -3125,7 +3125,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H33" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>25.82886500703316</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.8731123569568</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>87.20983709797903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2590655368476</v>
+        <v>217.2590655368471</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240555</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3362,7 +3362,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H36" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>104.7672094081497</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H37" t="n">
         <v>137.9496946538981</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>156.56410959728</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>116.335270402251</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884117</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T38" t="n">
         <v>217.2590655368476</v>
@@ -3571,7 +3571,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463342</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H39" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>37.35396789784523</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>166.5407608834225</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772993</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3757,7 +3757,7 @@
         <v>397.2450776617479</v>
       </c>
       <c r="H41" t="n">
-        <v>284.8176194334636</v>
+        <v>284.8176194334632</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T41" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240564</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3836,7 +3836,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H42" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>67.77692056418643</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>156.56410959728</v>
       </c>
       <c r="T43" t="n">
-        <v>243.1546752508501</v>
+        <v>27.51345148108519</v>
       </c>
       <c r="U43" t="n">
         <v>275.645275292109</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268192</v>
       </c>
       <c r="T44" t="n">
         <v>217.2590655368476</v>
@@ -4036,7 +4036,7 @@
         <v>256.6189776240556</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655109</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4073,7 +4073,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H45" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>156.8443663926028</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I46" t="n">
         <v>85.90132644576698</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T46" t="n">
         <v>243.1546752508501</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>105.6144997748832</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>550.6055673650617</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>516.503498588889</v>
       </c>
       <c r="D2" t="n">
         <v>87.92182432615731</v>
@@ -4330,7 +4330,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
@@ -4342,13 +4342,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4366,16 +4366,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>577.110453469508</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>572.8647338095655</v>
       </c>
     </row>
     <row r="3">
@@ -4424,7 +4424,7 @@
         <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.2419976140245</v>
+        <v>232.4448594332978</v>
       </c>
       <c r="C4" t="n">
-        <v>376.2419976140245</v>
+        <v>232.4448594332978</v>
       </c>
       <c r="D4" t="n">
-        <v>376.2419976140245</v>
+        <v>232.4448594332978</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>232.4448594332978</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>232.4448594332978</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>232.4448594332978</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.8461756808652</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4518,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1459.048665570785</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1180.61566482389</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>893.6601566943204</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>621.633752280612</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X4" t="n">
-        <v>376.2419976140245</v>
+        <v>459.8645301191896</v>
       </c>
       <c r="Y4" t="n">
-        <v>376.2419976140245</v>
+        <v>232.4448594332978</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>954.2291820326056</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C5" t="n">
-        <v>920.1271132564331</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4570,16 +4570,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1400.691582106304</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1400.691582106304</v>
+        <v>1408.019692669128</v>
       </c>
       <c r="W5" t="n">
-        <v>1399.876531557741</v>
+        <v>1003.164238080161</v>
       </c>
       <c r="X5" t="n">
-        <v>1384.774472177456</v>
+        <v>584.0217746594717</v>
       </c>
       <c r="Y5" t="n">
-        <v>976.4883484771094</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1644.724363562988</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R6" t="n">
         <v>1697.183430080417</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1032.553386008951</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="C7" t="n">
-        <v>859.9916744921758</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="D7" t="n">
-        <v>694.1136816936985</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E7" t="n">
-        <v>524.3556779444357</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F7" t="n">
-        <v>347.6486239061919</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G7" t="n">
-        <v>182.0573489320196</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
-        <v>42.1551746223941</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4728,16 +4728,16 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>538.7332355342593</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>958.7861344791625</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>958.7861344791625</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4758,19 +4758,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W7" t="n">
-        <v>1697.183430080417</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X7" t="n">
-        <v>1451.79167541383</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="Y7" t="n">
-        <v>1224.372004727938</v>
+        <v>614.3767621236573</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.417919242928</v>
+        <v>484.0636759001416</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>449.9616071239689</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>418.0922263388175</v>
       </c>
       <c r="E8" t="n">
         <v>58.18748352485655</v>
@@ -4804,25 +4804,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N8" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4837,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W8" t="n">
-        <v>1437.146076848872</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X8" t="n">
-        <v>1018.003613428182</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y8" t="n">
-        <v>609.7174897278358</v>
+        <v>506.3228423446453</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>428.0970671107308</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="C10" t="n">
-        <v>428.0970671107308</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D10" t="n">
-        <v>428.0970671107308</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E10" t="n">
-        <v>428.0970671107308</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F10" t="n">
         <v>428.0970671107308</v>
@@ -4962,19 +4962,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U10" t="n">
-        <v>1429.886162364244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V10" t="n">
-        <v>1142.930654234675</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W10" t="n">
-        <v>870.9042498209665</v>
+        <v>1605.070161768181</v>
       </c>
       <c r="X10" t="n">
-        <v>847.3353565156096</v>
+        <v>1359.678407101594</v>
       </c>
       <c r="Y10" t="n">
-        <v>619.915685829718</v>
+        <v>1132.258736415702</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C11" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E11" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F11" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814171</v>
       </c>
       <c r="G11" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776307</v>
       </c>
       <c r="H11" t="n">
         <v>102.1422344933241</v>
@@ -5041,19 +5041,19 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J11" t="n">
-        <v>553.9456687731839</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K11" t="n">
-        <v>1405.772184659974</v>
+        <v>970.5174972070564</v>
       </c>
       <c r="L11" t="n">
-        <v>2502.512952049707</v>
+        <v>2067.258264596789</v>
       </c>
       <c r="M11" t="n">
-        <v>3472.263292332363</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N11" t="n">
-        <v>3496.777713692914</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O11" t="n">
         <v>3519.925986636534</v>
@@ -5077,16 +5077,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V11" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W11" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X11" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y11" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="12">
@@ -5099,19 +5099,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C12" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D12" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E12" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F12" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G12" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H12" t="n">
         <v>102.1422344933241</v>
@@ -5120,28 +5120,28 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J12" t="n">
-        <v>156.5515988562198</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K12" t="n">
-        <v>168.4216696162271</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L12" t="n">
-        <v>1138.925493421876</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M12" t="n">
-        <v>1157.550965019388</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N12" t="n">
-        <v>1176.669397428267</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.159027993443</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P12" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q12" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R12" t="n">
         <v>1762.882278270333</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3366.559157366001</v>
+        <v>1101.518771565904</v>
       </c>
       <c r="C13" t="n">
-        <v>3193.997445849226</v>
+        <v>928.9570600491287</v>
       </c>
       <c r="D13" t="n">
-        <v>3028.119453050749</v>
+        <v>763.0790672506514</v>
       </c>
       <c r="E13" t="n">
-        <v>2858.361449301486</v>
+        <v>593.3210635013886</v>
       </c>
       <c r="F13" t="n">
-        <v>2681.654395263242</v>
+        <v>416.6140094631448</v>
       </c>
       <c r="G13" t="n">
-        <v>2516.125998943084</v>
+        <v>251.0856131429865</v>
       </c>
       <c r="H13" t="n">
-        <v>2516.125998943084</v>
+        <v>111.7424872299581</v>
       </c>
       <c r="I13" t="n">
-        <v>2429.356982331198</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="J13" t="n">
-        <v>2520.293722469985</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K13" t="n">
-        <v>2802.212156797963</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L13" t="n">
-        <v>3229.58434755993</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M13" t="n">
-        <v>3698.728584924507</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N13" t="n">
-        <v>4150.418056254837</v>
+        <v>1823.203308416962</v>
       </c>
       <c r="O13" t="n">
-        <v>4578.798053935969</v>
+        <v>2251.583306098094</v>
       </c>
       <c r="P13" t="n">
-        <v>4933.75849803816</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q13" t="n">
-        <v>5107.111724666206</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="R13" t="n">
-        <v>5107.111724666206</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S13" t="n">
-        <v>4948.966159416428</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T13" t="n">
-        <v>4703.355376334761</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U13" t="n">
-        <v>4424.92580533263</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V13" t="n">
-        <v>4137.970297203061</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W13" t="n">
-        <v>4031.189201437468</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X13" t="n">
-        <v>3785.79744677088</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y13" t="n">
-        <v>3558.377776084988</v>
+        <v>1293.337390284891</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C14" t="n">
         <v>2088.646413039469</v>
@@ -5278,34 +5278,34 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J14" t="n">
-        <v>553.9456687731839</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K14" t="n">
-        <v>1405.772184659974</v>
+        <v>970.5174972070564</v>
       </c>
       <c r="L14" t="n">
-        <v>2291.091388413894</v>
+        <v>2067.258264596789</v>
       </c>
       <c r="M14" t="n">
-        <v>3472.263292332363</v>
+        <v>2091.382333304708</v>
       </c>
       <c r="N14" t="n">
-        <v>3496.777713692914</v>
+        <v>3232.250897834259</v>
       </c>
       <c r="O14" t="n">
-        <v>3519.925986636534</v>
+        <v>4235.578837348186</v>
       </c>
       <c r="P14" t="n">
-        <v>4367.992376873088</v>
+        <v>5083.64522758474</v>
       </c>
       <c r="Q14" t="n">
-        <v>4929.327483119182</v>
+        <v>5098.481547872238</v>
       </c>
       <c r="R14" t="n">
         <v>5107.111724666206</v>
       </c>
       <c r="S14" t="n">
-        <v>5026.654138178649</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T14" t="n">
         <v>4807.200536626277</v>
@@ -5314,13 +5314,13 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V14" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W14" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X14" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y14" t="n">
         <v>2953.088456340954</v>
@@ -5336,46 +5336,46 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C15" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D15" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E15" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F15" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G15" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H15" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I15" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J15" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K15" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L15" t="n">
-        <v>1093.992002967972</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M15" t="n">
-        <v>1112.617474565485</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N15" t="n">
-        <v>1131.735906974363</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O15" t="n">
-        <v>1617.725188531179</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P15" t="n">
-        <v>1631.762158972801</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q15" t="n">
         <v>1641.145501977371</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1178.687535441156</v>
+        <v>1133.938103521634</v>
       </c>
       <c r="C16" t="n">
-        <v>1006.125823924381</v>
+        <v>961.376392004859</v>
       </c>
       <c r="D16" t="n">
-        <v>840.2478311259033</v>
+        <v>795.4983992063817</v>
       </c>
       <c r="E16" t="n">
-        <v>670.4898273766405</v>
+        <v>625.7403954571189</v>
       </c>
       <c r="F16" t="n">
-        <v>493.7827733383967</v>
+        <v>449.0333414188751</v>
       </c>
       <c r="G16" t="n">
-        <v>328.2543770182384</v>
+        <v>283.5049450987168</v>
       </c>
       <c r="H16" t="n">
-        <v>188.91125110521</v>
+        <v>144.1618191856884</v>
       </c>
       <c r="I16" t="n">
         <v>102.1422344933241</v>
@@ -5475,13 +5475,13 @@
         <v>2070.594552006809</v>
       </c>
       <c r="W16" t="n">
-        <v>1843.317579512622</v>
+        <v>1798.568147593101</v>
       </c>
       <c r="X16" t="n">
-        <v>1597.925824846035</v>
+        <v>1553.176392926513</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.506154160143</v>
+        <v>1325.756722240621</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C17" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E17" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F17" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G17" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H17" t="n">
         <v>102.1422344933241</v>
@@ -5521,28 +5521,28 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L17" t="n">
-        <v>2502.512952049707</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M17" t="n">
-        <v>2526.637020757626</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N17" t="n">
-        <v>2685.752111875664</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O17" t="n">
-        <v>3689.080051389591</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P17" t="n">
-        <v>4537.146441626144</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q17" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R17" t="n">
         <v>5107.111724666206</v>
       </c>
       <c r="S17" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T17" t="n">
         <v>4807.200536626277</v>
@@ -5560,7 +5560,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y17" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="18">
@@ -5573,49 +5573,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C18" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D18" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E18" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F18" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G18" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H18" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I18" t="n">
-        <v>130.7368052137691</v>
+        <v>104.6731320533116</v>
       </c>
       <c r="J18" t="n">
-        <v>462.2401065289864</v>
+        <v>430.3611275969465</v>
       </c>
       <c r="K18" t="n">
-        <v>1005.791940332991</v>
+        <v>1122.964718427331</v>
       </c>
       <c r="L18" t="n">
-        <v>1021.752715327536</v>
+        <v>1138.925493421876</v>
       </c>
       <c r="M18" t="n">
-        <v>1040.378186925048</v>
+        <v>1157.550965019388</v>
       </c>
       <c r="N18" t="n">
-        <v>1059.496619333927</v>
+        <v>1176.669397428267</v>
       </c>
       <c r="O18" t="n">
-        <v>1076.986249899104</v>
+        <v>1194.159027993443</v>
       </c>
       <c r="P18" t="n">
-        <v>1091.023220340725</v>
+        <v>1208.195998435065</v>
       </c>
       <c r="Q18" t="n">
-        <v>1641.145501977371</v>
+        <v>1758.318280071711</v>
       </c>
       <c r="R18" t="n">
         <v>1762.882278270333</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.099100880012</v>
+        <v>1178.687535441156</v>
       </c>
       <c r="C19" t="n">
-        <v>701.5373893632369</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="D19" t="n">
-        <v>535.6593965647596</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9013928154969</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F19" t="n">
-        <v>189.1943387772531</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G19" t="n">
-        <v>102.1422344933241</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H19" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I19" t="n">
         <v>102.1422344933241</v>
@@ -5697,28 +5697,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R19" t="n">
-        <v>2779.896976828331</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S19" t="n">
-        <v>2621.751411578553</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T19" t="n">
-        <v>2376.140628496887</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U19" t="n">
-        <v>2097.711057494756</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="V19" t="n">
-        <v>1810.755549365187</v>
+        <v>2070.594552006809</v>
       </c>
       <c r="W19" t="n">
-        <v>1538.729144951478</v>
+        <v>1798.568147593101</v>
       </c>
       <c r="X19" t="n">
-        <v>1293.337390284891</v>
+        <v>1553.176392926513</v>
       </c>
       <c r="Y19" t="n">
-        <v>1065.917719598999</v>
+        <v>1325.756722240621</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C20" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E20" t="n">
         <v>1218.961883372208</v>
@@ -5758,16 +5758,16 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L20" t="n">
-        <v>2502.512952049707</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M20" t="n">
-        <v>3683.684855968177</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N20" t="n">
-        <v>3708.199277328727</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O20" t="n">
-        <v>3731.347550272348</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P20" t="n">
         <v>4367.992376873088</v>
@@ -5791,13 +5791,13 @@
         <v>4185.372498050957</v>
       </c>
       <c r="W20" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X20" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y20" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="21">
@@ -5810,49 +5810,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C21" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D21" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E21" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F21" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G21" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H21" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I21" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J21" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K21" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L21" t="n">
-        <v>1093.992002967972</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M21" t="n">
-        <v>1698.289903651464</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N21" t="n">
-        <v>1717.408336060342</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O21" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P21" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q21" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R21" t="n">
         <v>1762.882278270333</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.099100880012</v>
+        <v>855.5085325195037</v>
       </c>
       <c r="C22" t="n">
-        <v>701.5373893632369</v>
+        <v>682.9468210027286</v>
       </c>
       <c r="D22" t="n">
-        <v>701.5373893632369</v>
+        <v>517.0688282042513</v>
       </c>
       <c r="E22" t="n">
-        <v>670.4898273766405</v>
+        <v>504.9614310564822</v>
       </c>
       <c r="F22" t="n">
-        <v>493.7827733383967</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="G22" t="n">
         <v>328.2543770182384</v>
@@ -5934,28 +5934,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R22" t="n">
-        <v>2779.896976828331</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S22" t="n">
-        <v>2621.751411578553</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T22" t="n">
-        <v>2376.140628496887</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U22" t="n">
-        <v>2097.711057494756</v>
+        <v>2079.120489134248</v>
       </c>
       <c r="V22" t="n">
-        <v>1810.755549365187</v>
+        <v>1792.164981004679</v>
       </c>
       <c r="W22" t="n">
-        <v>1538.729144951478</v>
+        <v>1520.13857659097</v>
       </c>
       <c r="X22" t="n">
-        <v>1293.337390284891</v>
+        <v>1274.746821924383</v>
       </c>
       <c r="Y22" t="n">
-        <v>1065.917719598999</v>
+        <v>1047.327151238491</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J23" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K23" t="n">
-        <v>136.1672052488786</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L23" t="n">
-        <v>1232.907972638611</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M23" t="n">
-        <v>2414.079876557081</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N23" t="n">
-        <v>3564.325281354079</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O23" t="n">
-        <v>4567.653220868006</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P23" t="n">
-        <v>5083.64522758474</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q23" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R23" t="n">
         <v>5107.111724666206</v>
@@ -6047,49 +6047,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C24" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D24" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E24" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F24" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G24" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H24" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I24" t="n">
-        <v>104.6731320533116</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J24" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K24" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L24" t="n">
-        <v>139.4489541568688</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M24" t="n">
-        <v>684.4882938331621</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N24" t="n">
-        <v>703.6067262420404</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O24" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P24" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q24" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R24" t="n">
         <v>1762.882278270333</v>
@@ -6180,19 +6180,19 @@
         <v>2357.550060136378</v>
       </c>
       <c r="U25" t="n">
-        <v>2357.550060136378</v>
+        <v>2210.480873336913</v>
       </c>
       <c r="V25" t="n">
-        <v>2070.594552006809</v>
+        <v>1923.525365207343</v>
       </c>
       <c r="W25" t="n">
-        <v>1798.568147593101</v>
+        <v>1651.498960793635</v>
       </c>
       <c r="X25" t="n">
-        <v>1553.176392926513</v>
+        <v>1406.107206127047</v>
       </c>
       <c r="Y25" t="n">
-        <v>1370.506154160143</v>
+        <v>1178.687535441156</v>
       </c>
     </row>
     <row r="26">
@@ -6232,19 +6232,19 @@
         <v>970.5174972070564</v>
       </c>
       <c r="L26" t="n">
-        <v>1559.98939919913</v>
+        <v>2067.258264596789</v>
       </c>
       <c r="M26" t="n">
-        <v>2741.1613031176</v>
+        <v>2492.083625762056</v>
       </c>
       <c r="N26" t="n">
-        <v>3891.406707914598</v>
+        <v>2516.598047122607</v>
       </c>
       <c r="O26" t="n">
-        <v>4894.734647428525</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P26" t="n">
-        <v>4914.491162831682</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q26" t="n">
         <v>4929.327483119181</v>
@@ -6302,28 +6302,28 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I27" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J27" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K27" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L27" t="n">
-        <v>139.4489541568688</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M27" t="n">
-        <v>158.0744257543813</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N27" t="n">
-        <v>1411.020129723566</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O27" t="n">
-        <v>1617.725188531179</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P27" t="n">
-        <v>1631.762158972801</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q27" t="n">
         <v>1641.145501977371</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.5753929162413</v>
+        <v>1091.91851882927</v>
       </c>
       <c r="C28" t="n">
-        <v>780.0136813994662</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="D28" t="n">
-        <v>614.1356886009889</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E28" t="n">
-        <v>444.3776848517263</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F28" t="n">
-        <v>267.6706308134825</v>
+        <v>407.0137567265108</v>
       </c>
       <c r="G28" t="n">
-        <v>102.1422344933241</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H28" t="n">
         <v>102.1422344933241</v>
@@ -6417,19 +6417,19 @@
         <v>2357.550060136378</v>
       </c>
       <c r="U28" t="n">
-        <v>2079.120489134248</v>
+        <v>2315.530475444014</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.231841401416</v>
+        <v>2028.574967314445</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.205436987708</v>
+        <v>1756.548562900736</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.81368232112</v>
+        <v>1511.156808234149</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.394011635228</v>
+        <v>1283.737137548257</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C29" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E29" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F29" t="n">
-        <v>791.0944537814157</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G29" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776307</v>
       </c>
       <c r="H29" t="n">
         <v>102.1422344933241</v>
@@ -6463,52 +6463,52 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J29" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K29" t="n">
-        <v>632.4026965624541</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L29" t="n">
-        <v>1729.143463952187</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M29" t="n">
-        <v>2910.315367870657</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N29" t="n">
-        <v>4060.560772667654</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O29" t="n">
-        <v>5063.888712181581</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P29" t="n">
-        <v>5083.645227584739</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q29" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R29" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S29" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T29" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U29" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V29" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W29" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X29" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y29" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="30">
@@ -6521,49 +6521,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C30" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D30" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E30" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F30" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G30" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H30" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I30" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J30" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K30" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L30" t="n">
-        <v>139.4489541568688</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M30" t="n">
-        <v>158.0744257543813</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N30" t="n">
-        <v>703.6067262420404</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O30" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P30" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q30" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R30" t="n">
         <v>1762.882278270333</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.5753929162413</v>
+        <v>855.5085325195037</v>
       </c>
       <c r="C31" t="n">
-        <v>780.0136813994662</v>
+        <v>682.9468210027286</v>
       </c>
       <c r="D31" t="n">
-        <v>614.1356886009889</v>
+        <v>517.0688282042513</v>
       </c>
       <c r="E31" t="n">
-        <v>444.3776848517263</v>
+        <v>504.9614310564822</v>
       </c>
       <c r="F31" t="n">
-        <v>267.6706308134825</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="G31" t="n">
-        <v>102.1422344933241</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H31" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I31" t="n">
         <v>102.1422344933241</v>
@@ -6633,40 +6633,40 @@
         <v>1371.513837086633</v>
       </c>
       <c r="N31" t="n">
-        <v>1823.203308416966</v>
+        <v>1823.203308416962</v>
       </c>
       <c r="O31" t="n">
-        <v>2251.583306098099</v>
+        <v>2251.583306098094</v>
       </c>
       <c r="P31" t="n">
-        <v>2606.543750200289</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q31" t="n">
-        <v>2779.896976828335</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="R31" t="n">
-        <v>2761.306408467827</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.227703614783</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.616920533116</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.187349530986</v>
+        <v>2079.120489134248</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.231841401416</v>
+        <v>1792.164981004679</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.205436987708</v>
+        <v>1520.13857659097</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.81368232112</v>
+        <v>1274.746821924383</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.394011635228</v>
+        <v>1047.327151238491</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C32" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D32" t="n">
         <v>1652.736628213913</v>
@@ -6700,31 +6700,31 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J32" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K32" t="n">
-        <v>961.1406569396092</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L32" t="n">
-        <v>2057.881424329342</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M32" t="n">
-        <v>2082.005493037261</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N32" t="n">
-        <v>3232.250897834258</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O32" t="n">
-        <v>4235.578837348185</v>
+        <v>3554.479381632103</v>
       </c>
       <c r="P32" t="n">
-        <v>5083.645227584739</v>
+        <v>4402.545771868657</v>
       </c>
       <c r="Q32" t="n">
-        <v>5098.481547872238</v>
+        <v>4963.880878114751</v>
       </c>
       <c r="R32" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S32" t="n">
         <v>5026.654138178648</v>
@@ -6733,16 +6733,16 @@
         <v>4807.200536626277</v>
       </c>
       <c r="U32" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V32" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W32" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X32" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y32" t="n">
         <v>2953.088456340953</v>
@@ -6758,49 +6758,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C33" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D33" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E33" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F33" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G33" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H33" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I33" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J33" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K33" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L33" t="n">
-        <v>139.4489541568688</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M33" t="n">
-        <v>684.4882938331621</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N33" t="n">
-        <v>703.6067262420404</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O33" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P33" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q33" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R33" t="n">
         <v>1762.882278270333</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1012.809542642678</v>
+        <v>855.5085325195037</v>
       </c>
       <c r="C34" t="n">
-        <v>840.2478311259031</v>
+        <v>829.4187698861368</v>
       </c>
       <c r="D34" t="n">
-        <v>840.2478311259031</v>
+        <v>663.5407770876595</v>
       </c>
       <c r="E34" t="n">
-        <v>670.4898273766404</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="F34" t="n">
-        <v>493.7827733383966</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G34" t="n">
-        <v>328.2543770182383</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H34" t="n">
-        <v>188.9112511052099</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I34" t="n">
         <v>102.1422344933241</v>
@@ -6900,10 +6900,10 @@
         <v>1520.13857659097</v>
       </c>
       <c r="X34" t="n">
-        <v>1432.047832047557</v>
+        <v>1274.746821924383</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.628161361665</v>
+        <v>1047.327151238491</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D35" t="n">
         <v>1652.736628213913</v>
@@ -6925,7 +6925,7 @@
         <v>1218.961883372208</v>
       </c>
       <c r="F35" t="n">
-        <v>791.0944537814157</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G35" t="n">
         <v>389.8367995776304</v>
@@ -6937,22 +6937,22 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J35" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K35" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L35" t="n">
-        <v>1993.670279810842</v>
+        <v>2467.959557054137</v>
       </c>
       <c r="M35" t="n">
-        <v>3174.842183729312</v>
+        <v>2492.083625762056</v>
       </c>
       <c r="N35" t="n">
-        <v>4325.087588526309</v>
+        <v>2516.598047122607</v>
       </c>
       <c r="O35" t="n">
-        <v>4348.23586146993</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P35" t="n">
         <v>4367.992376873087</v>
@@ -6964,22 +6964,22 @@
         <v>5107.111724666205</v>
       </c>
       <c r="S35" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T35" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U35" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V35" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W35" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X35" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y35" t="n">
         <v>2953.088456340953</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>855.5085325195037</v>
+        <v>1001.980481402912</v>
       </c>
       <c r="C37" t="n">
-        <v>682.9468210027286</v>
+        <v>829.4187698861366</v>
       </c>
       <c r="D37" t="n">
-        <v>517.0688282042513</v>
+        <v>663.5407770876593</v>
       </c>
       <c r="E37" t="n">
-        <v>347.3108244549886</v>
+        <v>493.7827733383966</v>
       </c>
       <c r="F37" t="n">
-        <v>241.4853604063525</v>
+        <v>493.7827733383966</v>
       </c>
       <c r="G37" t="n">
-        <v>241.4853604063525</v>
+        <v>328.2543770182383</v>
       </c>
       <c r="H37" t="n">
-        <v>102.1422344933241</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I37" t="n">
         <v>102.1422344933241</v>
@@ -7119,28 +7119,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R37" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S37" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T37" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U37" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V37" t="n">
-        <v>1792.164981004679</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W37" t="n">
-        <v>1520.13857659097</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X37" t="n">
-        <v>1274.746821924383</v>
+        <v>1421.218770807791</v>
       </c>
       <c r="Y37" t="n">
-        <v>1047.327151238491</v>
+        <v>1193.799100121899</v>
       </c>
     </row>
     <row r="38">
@@ -7183,40 +7183,40 @@
         <v>2502.512952049707</v>
       </c>
       <c r="M38" t="n">
-        <v>2526.637020757626</v>
+        <v>3489.547565348509</v>
       </c>
       <c r="N38" t="n">
-        <v>2551.151442118177</v>
+        <v>3514.06198670906</v>
       </c>
       <c r="O38" t="n">
-        <v>3554.479381632103</v>
+        <v>4517.389926222986</v>
       </c>
       <c r="P38" t="n">
-        <v>4402.545771868657</v>
+        <v>4537.146441626143</v>
       </c>
       <c r="Q38" t="n">
-        <v>4929.327483119182</v>
+        <v>5098.481547872238</v>
       </c>
       <c r="R38" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S38" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T38" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626276</v>
       </c>
       <c r="U38" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V38" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W38" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X38" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y38" t="n">
         <v>2953.088456340954</v>
@@ -7253,19 +7253,19 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J39" t="n">
-        <v>137.6817815627741</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K39" t="n">
-        <v>149.5518523227814</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L39" t="n">
-        <v>165.5126273173264</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M39" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N39" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O39" t="n">
         <v>1076.986249899104</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.099100880012</v>
+        <v>1178.687535441155</v>
       </c>
       <c r="C40" t="n">
-        <v>836.3678201751178</v>
+        <v>1006.12582392438</v>
       </c>
       <c r="D40" t="n">
-        <v>670.4898273766405</v>
+        <v>840.2478311259031</v>
       </c>
       <c r="E40" t="n">
-        <v>670.4898273766405</v>
+        <v>670.4898273766404</v>
       </c>
       <c r="F40" t="n">
-        <v>493.7827733383967</v>
+        <v>493.7827733383966</v>
       </c>
       <c r="G40" t="n">
-        <v>328.2543770182384</v>
+        <v>328.2543770182383</v>
       </c>
       <c r="H40" t="n">
-        <v>188.91125110521</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I40" t="n">
         <v>102.1422344933241</v>
@@ -7374,10 +7374,10 @@
         <v>1538.729144951478</v>
       </c>
       <c r="X40" t="n">
-        <v>1293.337390284891</v>
+        <v>1370.506154160143</v>
       </c>
       <c r="Y40" t="n">
-        <v>1065.917719598999</v>
+        <v>1370.506154160143</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2526.788885856046</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F41" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G41" t="n">
-        <v>389.8367995776308</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H41" t="n">
         <v>102.1422344933241</v>
@@ -7420,25 +7420,25 @@
         <v>2067.258264596789</v>
       </c>
       <c r="M41" t="n">
-        <v>3248.430168515259</v>
+        <v>2661.237690515113</v>
       </c>
       <c r="N41" t="n">
-        <v>4398.675573312257</v>
+        <v>2685.752111875664</v>
       </c>
       <c r="O41" t="n">
-        <v>4421.823846255877</v>
+        <v>3689.08005138959</v>
       </c>
       <c r="P41" t="n">
-        <v>4441.580361659035</v>
+        <v>4537.146441626143</v>
       </c>
       <c r="Q41" t="n">
-        <v>4929.327483119182</v>
+        <v>5098.481547872238</v>
       </c>
       <c r="R41" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S41" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T41" t="n">
         <v>4807.200536626277</v>
@@ -7487,10 +7487,10 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I42" t="n">
-        <v>130.7368052137691</v>
+        <v>104.6731320533115</v>
       </c>
       <c r="J42" t="n">
-        <v>462.2401065289864</v>
+        <v>313.1883495026064</v>
       </c>
       <c r="K42" t="n">
         <v>1005.791940332991</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>855.5085325195037</v>
+        <v>1091.91851882927</v>
       </c>
       <c r="C43" t="n">
-        <v>682.9468210027286</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="D43" t="n">
-        <v>517.0688282042513</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E43" t="n">
-        <v>347.3108244549886</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F43" t="n">
-        <v>170.6037704167448</v>
+        <v>407.0137567265108</v>
       </c>
       <c r="G43" t="n">
-        <v>102.1422344933241</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H43" t="n">
         <v>102.1422344933241</v>
@@ -7593,28 +7593,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R43" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S43" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T43" t="n">
-        <v>2357.550060136378</v>
+        <v>2593.960046446144</v>
       </c>
       <c r="U43" t="n">
-        <v>2079.120489134248</v>
+        <v>2315.530475444014</v>
       </c>
       <c r="V43" t="n">
-        <v>1792.164981004679</v>
+        <v>2028.574967314445</v>
       </c>
       <c r="W43" t="n">
-        <v>1520.13857659097</v>
+        <v>1756.548562900736</v>
       </c>
       <c r="X43" t="n">
-        <v>1274.746821924383</v>
+        <v>1511.156808234149</v>
       </c>
       <c r="Y43" t="n">
-        <v>1047.327151238491</v>
+        <v>1283.737137548257</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2526.788885856047</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C44" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.736628213915</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E44" t="n">
-        <v>1218.96188337221</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F44" t="n">
-        <v>791.0944537814171</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G44" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H44" t="n">
         <v>102.1422344933241</v>
@@ -7648,52 +7648,52 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J44" t="n">
-        <v>228.0115822993457</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K44" t="n">
-        <v>245.4878062279583</v>
+        <v>970.5174972070564</v>
       </c>
       <c r="L44" t="n">
-        <v>1342.228573617691</v>
+        <v>2067.258264596789</v>
       </c>
       <c r="M44" t="n">
-        <v>1366.35264232561</v>
+        <v>2492.083625762056</v>
       </c>
       <c r="N44" t="n">
-        <v>2516.598047122608</v>
+        <v>2516.598047122607</v>
       </c>
       <c r="O44" t="n">
-        <v>3519.925986636534</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P44" t="n">
-        <v>4367.992376873088</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q44" t="n">
-        <v>4929.327483119182</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R44" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S44" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T44" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626276</v>
       </c>
       <c r="U44" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V44" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W44" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X44" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y44" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1032.24466612979</v>
+        <v>1012.809542642678</v>
       </c>
       <c r="C46" t="n">
-        <v>859.6829546130149</v>
+        <v>840.2478311259031</v>
       </c>
       <c r="D46" t="n">
-        <v>693.8049618145376</v>
+        <v>840.2478311259031</v>
       </c>
       <c r="E46" t="n">
-        <v>524.0469580652748</v>
+        <v>670.4898273766404</v>
       </c>
       <c r="F46" t="n">
-        <v>347.339904027031</v>
+        <v>493.7827733383966</v>
       </c>
       <c r="G46" t="n">
-        <v>188.91125110521</v>
+        <v>328.2543770182383</v>
       </c>
       <c r="H46" t="n">
-        <v>188.91125110521</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I46" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="J46" t="n">
-        <v>193.078974632111</v>
+        <v>193.0789746321119</v>
       </c>
       <c r="K46" t="n">
-        <v>474.9974089600885</v>
+        <v>474.9974089600894</v>
       </c>
       <c r="L46" t="n">
-        <v>902.3695997220555</v>
+        <v>902.3695997220563</v>
       </c>
       <c r="M46" t="n">
         <v>1371.513837086633</v>
       </c>
       <c r="N46" t="n">
-        <v>1823.203308416962</v>
+        <v>1823.203308416963</v>
       </c>
       <c r="O46" t="n">
-        <v>2251.583306098094</v>
+        <v>2251.583306098095</v>
       </c>
       <c r="P46" t="n">
-        <v>2606.543750200285</v>
+        <v>2606.543750200286</v>
       </c>
       <c r="Q46" t="n">
-        <v>2779.896976828331</v>
+        <v>2779.896976828332</v>
       </c>
       <c r="R46" t="n">
-        <v>2779.896976828331</v>
+        <v>2779.896976828332</v>
       </c>
       <c r="S46" t="n">
-        <v>2779.896976828331</v>
+        <v>2621.751411578554</v>
       </c>
       <c r="T46" t="n">
-        <v>2534.286193746665</v>
+        <v>2376.140628496888</v>
       </c>
       <c r="U46" t="n">
-        <v>2255.856622744534</v>
+        <v>2097.711057494757</v>
       </c>
       <c r="V46" t="n">
-        <v>1968.901114614965</v>
+        <v>1810.755549365188</v>
       </c>
       <c r="W46" t="n">
-        <v>1696.874710201256</v>
+        <v>1538.729144951479</v>
       </c>
       <c r="X46" t="n">
-        <v>1451.482955534669</v>
+        <v>1432.047832047557</v>
       </c>
       <c r="Y46" t="n">
-        <v>1224.063284848777</v>
+        <v>1204.628161361665</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,16 +7990,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8218,7 +8218,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8300,7 +8300,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q6" t="n">
-        <v>52.98895607821123</v>
-      </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,19 +8376,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>224.947097744021</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8610,22 +8610,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8698,13 +8698,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>955.1780520956945</v>
+        <v>404.7487802599485</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8768,13 +8768,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>19.06042150853099</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>872.3620228455011</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1127.630447645455</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>473.2319706986252</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>135.9602724823103</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>321.9626456511414</v>
       </c>
       <c r="K18" t="n">
-        <v>537.0522859030276</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,19 +9406,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>623.1195062601851</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>591.5883122080595</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>501.2479710238149</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>531.7311798775563</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,22 +9880,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>573.5263645002027</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>404.7487802599476</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>191.1266951943799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>501.2479710238138</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>531.7311798775563</v>
+        <v>537.0522859030275</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>833.3065168593239</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10369,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>135.9602724823108</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>531.7311798775563</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1011.587860067588</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10831,7 +10831,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>972.6369137281649</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>517.116556528309</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>864.8889777880904</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>575.6114719297016</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>477.6876779521699</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>203.606304141707</v>
       </c>
       <c r="K42" t="n">
-        <v>537.0522859030276</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>110.4248494738179</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>404.7487802599476</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>76.39707623649934</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>163.5928555616339</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>44.30193760032634</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>44.30193760032648</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>44.30193760032634</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>77.69152911586711</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>137.3233373450397</v>
+        <v>156.0741005354787</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.645275292109</v>
+        <v>130.0467803606381</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>44.30193760032634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>85.90132644576698</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>234.0458864466683</v>
       </c>
       <c r="V28" t="n">
-        <v>96.09619179277021</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>156.0741005354787</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H31" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.09619179276578</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>145.0072293945742</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>155.7280000219426</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>70.17277408971164</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>126.6025667176707</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>133.4821265037621</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>76.39707623649917</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>96.09619179277034</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>85.90132644576698</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>215.6412237697649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>7.028745964353931</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S46" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>137.3233373450385</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>631827.6859173948</v>
+        <v>631827.6859173947</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631827.6859173946</v>
+        <v>631827.6859173947</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="C2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="E2" t="n">
         <v>409563.1547552674</v>
       </c>
       <c r="F2" t="n">
-        <v>409563.1547552673</v>
+        <v>409563.1547552674</v>
       </c>
       <c r="G2" t="n">
         <v>409563.1547552674</v>
       </c>
       <c r="H2" t="n">
-        <v>409563.1547552673</v>
+        <v>409563.1547552674</v>
       </c>
       <c r="I2" t="n">
         <v>409563.1547552674</v>
       </c>
       <c r="J2" t="n">
-        <v>409563.1547552673</v>
+        <v>409563.1547552674</v>
       </c>
       <c r="K2" t="n">
         <v>409563.1547552674</v>
       </c>
       <c r="L2" t="n">
+        <v>409563.1547552674</v>
+      </c>
+      <c r="M2" t="n">
+        <v>409563.1547552674</v>
+      </c>
+      <c r="N2" t="n">
         <v>409563.1547552673</v>
       </c>
-      <c r="M2" t="n">
-        <v>409563.1547552673</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>409563.1547552674</v>
-      </c>
-      <c r="O2" t="n">
-        <v>409563.1547552673</v>
       </c>
       <c r="P2" t="n">
         <v>409563.1547552674</v>
@@ -26401,7 +26401,7 @@
         <v>212441.9426809892</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224357.4126279202</v>
+        <v>224357.4126279203</v>
       </c>
       <c r="C4" t="n">
-        <v>224357.4126279202</v>
+        <v>224357.4126279203</v>
       </c>
       <c r="D4" t="n">
         <v>224357.4126279202</v>
@@ -26453,13 +26453,13 @@
         <v>117378.5063257626</v>
       </c>
       <c r="N4" t="n">
-        <v>117378.5063257626</v>
+        <v>117378.5063257627</v>
       </c>
       <c r="O4" t="n">
         <v>117378.5063257626</v>
       </c>
       <c r="P4" t="n">
-        <v>117378.5063257626</v>
+        <v>117378.5063257627</v>
       </c>
     </row>
     <row r="5">
@@ -26496,22 +26496,22 @@
         <v>78380.64252189652</v>
       </c>
       <c r="K5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="L5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="M5" t="n">
         <v>78380.64252189652</v>
       </c>
       <c r="N5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="O5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="P5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10459.32850978593</v>
+        <v>-10459.32850978587</v>
       </c>
       <c r="C6" t="n">
         <v>131731.972149924</v>
       </c>
       <c r="D6" t="n">
-        <v>131731.972149924</v>
+        <v>131731.9721499239</v>
       </c>
       <c r="E6" t="n">
-        <v>-68462.16437726967</v>
+        <v>-68481.36121004322</v>
       </c>
       <c r="F6" t="n">
-        <v>213804.0059076082</v>
+        <v>213784.8090748347</v>
       </c>
       <c r="G6" t="n">
-        <v>213804.0059076083</v>
+        <v>213784.8090748348</v>
       </c>
       <c r="H6" t="n">
-        <v>213804.0059076082</v>
+        <v>213784.8090748347</v>
       </c>
       <c r="I6" t="n">
-        <v>213804.0059076083</v>
+        <v>213784.8090748347</v>
       </c>
       <c r="J6" t="n">
-        <v>102789.5405626181</v>
+        <v>102770.3437298446</v>
       </c>
       <c r="K6" t="n">
-        <v>213804.0059076083</v>
+        <v>213784.8090748347</v>
       </c>
       <c r="L6" t="n">
-        <v>213804.0059076082</v>
+        <v>213784.8090748347</v>
       </c>
       <c r="M6" t="n">
-        <v>1362.063226618979</v>
+        <v>1342.866393845607</v>
       </c>
       <c r="N6" t="n">
-        <v>213804.0059076082</v>
+        <v>213784.8090748346</v>
       </c>
       <c r="O6" t="n">
-        <v>213804.0059076081</v>
+        <v>213784.8090748348</v>
       </c>
       <c r="P6" t="n">
-        <v>213804.0059076083</v>
+        <v>213784.8090748347</v>
       </c>
     </row>
   </sheetData>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367915</v>
+        <v>34.52038105367909</v>
       </c>
       <c r="F3" t="n">
-        <v>34.52038105367915</v>
+        <v>34.52038105367909</v>
       </c>
       <c r="G3" t="n">
-        <v>34.52038105367915</v>
+        <v>34.52038105367909</v>
       </c>
       <c r="H3" t="n">
-        <v>34.52038105367915</v>
+        <v>34.52038105367909</v>
       </c>
       <c r="I3" t="n">
-        <v>34.52038105367915</v>
+        <v>34.52038105367909</v>
       </c>
       <c r="J3" t="n">
-        <v>34.52038105367915</v>
+        <v>34.52038105367909</v>
       </c>
       <c r="K3" t="n">
-        <v>34.52038105367915</v>
+        <v>34.52038105367909</v>
       </c>
       <c r="L3" t="n">
-        <v>34.52038105367915</v>
+        <v>34.52038105367909</v>
       </c>
       <c r="M3" t="n">
-        <v>34.52038105367915</v>
+        <v>34.52038105367909</v>
       </c>
       <c r="N3" t="n">
-        <v>34.52038105367915</v>
+        <v>34.52038105367909</v>
       </c>
       <c r="O3" t="n">
-        <v>34.52038105367915</v>
+        <v>34.52038105367909</v>
       </c>
       <c r="P3" t="n">
-        <v>34.52038105367915</v>
+        <v>34.52038105367909</v>
       </c>
     </row>
     <row r="4">
@@ -26816,22 +26816,22 @@
         <v>1276.777931166551</v>
       </c>
       <c r="K4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="L4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="M4" t="n">
         <v>1276.777931166551</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
     </row>
   </sheetData>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367915</v>
+        <v>34.52038105367909</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>852.4820736464471</v>
+        <v>852.4820736464469</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>114.1405214419545</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27438,16 +27438,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>65.87647255027105</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>29.76032337622804</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>186.5198331894579</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>45.91850523978246</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>72.71868052833514</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>71.09401005982483</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>79.64395877249352</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>370.7706010981079</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>73.13130200746639</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27909,19 +27909,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.1140047404576</v>
       </c>
       <c r="X10" t="n">
-        <v>219.6046327476184</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.464171643889758e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30878,7 +30878,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>9.30691416654334e-13</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1387754012208206</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H11" t="n">
-        <v>1.421233577752729</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I11" t="n">
-        <v>5.350138655565691</v>
+        <v>5.350138655565682</v>
       </c>
       <c r="J11" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K11" t="n">
-        <v>17.65275144304297</v>
+        <v>17.65275144304294</v>
       </c>
       <c r="L11" t="n">
-        <v>21.89979912815466</v>
+        <v>21.89979912815463</v>
       </c>
       <c r="M11" t="n">
-        <v>24.36774616961543</v>
+        <v>24.36774616961539</v>
       </c>
       <c r="N11" t="n">
-        <v>24.76204177833409</v>
+        <v>24.76204177833405</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244455</v>
+        <v>23.38209388244451</v>
       </c>
       <c r="P11" t="n">
-        <v>19.95607616480554</v>
+        <v>19.95607616480551</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.9861821085849</v>
+        <v>14.98618210858487</v>
       </c>
       <c r="R11" t="n">
-        <v>8.717350296937379</v>
+        <v>8.717350296937363</v>
       </c>
       <c r="S11" t="n">
-        <v>3.162344455319452</v>
+        <v>3.162344455319447</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6074893188441424</v>
+        <v>0.6074893188441414</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07425138566263062</v>
+        <v>0.0742513856626305</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7171120667943537</v>
+        <v>0.7171120667943525</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805484</v>
+        <v>2.55646218180548</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257572</v>
+        <v>7.01512762525756</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465382</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398478</v>
+        <v>16.12199494398475</v>
       </c>
       <c r="M12" t="n">
-        <v>18.81360767425513</v>
+        <v>18.8136076742551</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775585</v>
+        <v>19.31154788775581</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66629350017861</v>
+        <v>17.66629350017858</v>
       </c>
       <c r="P12" t="n">
-        <v>14.1787580218404</v>
+        <v>14.17875802184038</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040357</v>
+        <v>9.478124247040343</v>
       </c>
       <c r="R12" t="n">
-        <v>4.61009919052719</v>
+        <v>4.610099190527182</v>
       </c>
       <c r="S12" t="n">
-        <v>1.379186922286142</v>
+        <v>1.37918692228614</v>
       </c>
       <c r="T12" t="n">
-        <v>0.299285190455954</v>
+        <v>0.2992851904559535</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004884959583067805</v>
+        <v>0.004884959583067798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06224986747384763</v>
+        <v>0.06224986747384753</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5534579126311184</v>
+        <v>0.5534579126311175</v>
       </c>
       <c r="I13" t="n">
-        <v>1.872023287304437</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J13" t="n">
-        <v>4.401065630401027</v>
+        <v>4.40106563040102</v>
       </c>
       <c r="K13" t="n">
-        <v>7.232302784688842</v>
+        <v>7.232302784688829</v>
       </c>
       <c r="L13" t="n">
-        <v>9.254857569702766</v>
+        <v>9.254857569702752</v>
       </c>
       <c r="M13" t="n">
-        <v>9.757949680468679</v>
+        <v>9.757949680468663</v>
       </c>
       <c r="N13" t="n">
-        <v>9.525927447157072</v>
+        <v>9.525927447157056</v>
       </c>
       <c r="O13" t="n">
-        <v>8.798735813485303</v>
+        <v>8.798735813485289</v>
       </c>
       <c r="P13" t="n">
-        <v>7.528838517018805</v>
+        <v>7.528838517018793</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.212577539105551</v>
+        <v>5.212577539105542</v>
       </c>
       <c r="R13" t="n">
-        <v>2.798980404778639</v>
+        <v>2.798980404778634</v>
       </c>
       <c r="S13" t="n">
-        <v>1.084845417703326</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2659767064791671</v>
+        <v>0.2659767064791667</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003395447316755329</v>
+        <v>0.003395447316755324</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1387754012208206</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H14" t="n">
-        <v>1.421233577752729</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I14" t="n">
-        <v>5.350138655565691</v>
+        <v>5.350138655565682</v>
       </c>
       <c r="J14" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K14" t="n">
-        <v>17.65275144304297</v>
+        <v>17.65275144304294</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815466</v>
+        <v>21.89979912815463</v>
       </c>
       <c r="M14" t="n">
-        <v>24.36774616961543</v>
+        <v>24.36774616961539</v>
       </c>
       <c r="N14" t="n">
-        <v>24.76204177833409</v>
+        <v>24.76204177833405</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38209388244455</v>
+        <v>23.38209388244451</v>
       </c>
       <c r="P14" t="n">
-        <v>19.95607616480554</v>
+        <v>19.95607616480551</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.9861821085849</v>
+        <v>14.98618210858487</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937379</v>
+        <v>8.717350296937363</v>
       </c>
       <c r="S14" t="n">
-        <v>3.162344455319452</v>
+        <v>3.162344455319447</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6074893188441424</v>
+        <v>0.6074893188441414</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07425138566263062</v>
+        <v>0.0742513856626305</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7171120667943537</v>
+        <v>0.7171120667943525</v>
       </c>
       <c r="I15" t="n">
-        <v>2.556462181805484</v>
+        <v>2.55646218180548</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257572</v>
+        <v>7.01512762525756</v>
       </c>
       <c r="K15" t="n">
-        <v>11.98997046465382</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L15" t="n">
-        <v>16.12199494398478</v>
+        <v>16.12199494398475</v>
       </c>
       <c r="M15" t="n">
-        <v>18.81360767425513</v>
+        <v>18.8136076742551</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775585</v>
+        <v>19.31154788775581</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017861</v>
+        <v>17.66629350017858</v>
       </c>
       <c r="P15" t="n">
-        <v>14.1787580218404</v>
+        <v>14.17875802184038</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.478124247040357</v>
+        <v>9.478124247040343</v>
       </c>
       <c r="R15" t="n">
-        <v>4.61009919052719</v>
+        <v>4.610099190527182</v>
       </c>
       <c r="S15" t="n">
-        <v>1.379186922286142</v>
+        <v>1.37918692228614</v>
       </c>
       <c r="T15" t="n">
-        <v>0.299285190455954</v>
+        <v>0.2992851904559535</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004884959583067805</v>
+        <v>0.004884959583067798</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06224986747384763</v>
+        <v>0.06224986747384753</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5534579126311184</v>
+        <v>0.5534579126311175</v>
       </c>
       <c r="I16" t="n">
-        <v>1.872023287304437</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J16" t="n">
-        <v>4.401065630401027</v>
+        <v>4.40106563040102</v>
       </c>
       <c r="K16" t="n">
-        <v>7.232302784688842</v>
+        <v>7.232302784688829</v>
       </c>
       <c r="L16" t="n">
-        <v>9.254857569702766</v>
+        <v>9.254857569702752</v>
       </c>
       <c r="M16" t="n">
-        <v>9.757949680468679</v>
+        <v>9.757949680468663</v>
       </c>
       <c r="N16" t="n">
-        <v>9.525927447157072</v>
+        <v>9.525927447157056</v>
       </c>
       <c r="O16" t="n">
-        <v>8.798735813485303</v>
+        <v>8.798735813485289</v>
       </c>
       <c r="P16" t="n">
-        <v>7.528838517018805</v>
+        <v>7.528838517018793</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.212577539105551</v>
+        <v>5.212577539105542</v>
       </c>
       <c r="R16" t="n">
-        <v>2.798980404778639</v>
+        <v>2.798980404778634</v>
       </c>
       <c r="S16" t="n">
-        <v>1.084845417703326</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2659767064791671</v>
+        <v>0.2659767064791667</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003395447316755329</v>
+        <v>0.003395447316755324</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1387754012208206</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H17" t="n">
-        <v>1.421233577752729</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I17" t="n">
-        <v>5.350138655565691</v>
+        <v>5.350138655565682</v>
       </c>
       <c r="J17" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304297</v>
+        <v>17.65275144304294</v>
       </c>
       <c r="L17" t="n">
-        <v>21.89979912815466</v>
+        <v>21.89979912815463</v>
       </c>
       <c r="M17" t="n">
-        <v>24.36774616961543</v>
+        <v>24.36774616961539</v>
       </c>
       <c r="N17" t="n">
-        <v>24.76204177833409</v>
+        <v>24.76204177833405</v>
       </c>
       <c r="O17" t="n">
-        <v>23.38209388244455</v>
+        <v>23.38209388244451</v>
       </c>
       <c r="P17" t="n">
-        <v>19.95607616480554</v>
+        <v>19.95607616480551</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.9861821085849</v>
+        <v>14.98618210858487</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937379</v>
+        <v>8.717350296937363</v>
       </c>
       <c r="S17" t="n">
-        <v>3.162344455319452</v>
+        <v>3.162344455319447</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6074893188441424</v>
+        <v>0.6074893188441414</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07425138566263062</v>
+        <v>0.0742513856626305</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7171120667943537</v>
+        <v>0.7171120667943525</v>
       </c>
       <c r="I18" t="n">
-        <v>2.556462181805484</v>
+        <v>2.55646218180548</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257572</v>
+        <v>7.01512762525756</v>
       </c>
       <c r="K18" t="n">
-        <v>11.98997046465382</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398478</v>
+        <v>16.12199494398475</v>
       </c>
       <c r="M18" t="n">
-        <v>18.81360767425513</v>
+        <v>18.8136076742551</v>
       </c>
       <c r="N18" t="n">
-        <v>19.31154788775585</v>
+        <v>19.31154788775581</v>
       </c>
       <c r="O18" t="n">
-        <v>17.66629350017861</v>
+        <v>17.66629350017858</v>
       </c>
       <c r="P18" t="n">
-        <v>14.1787580218404</v>
+        <v>14.17875802184038</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040357</v>
+        <v>9.478124247040343</v>
       </c>
       <c r="R18" t="n">
-        <v>4.61009919052719</v>
+        <v>4.610099190527182</v>
       </c>
       <c r="S18" t="n">
-        <v>1.379186922286142</v>
+        <v>1.37918692228614</v>
       </c>
       <c r="T18" t="n">
-        <v>0.299285190455954</v>
+        <v>0.2992851904559535</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004884959583067805</v>
+        <v>0.004884959583067798</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06224986747384763</v>
+        <v>0.06224986747384753</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5534579126311184</v>
+        <v>0.5534579126311175</v>
       </c>
       <c r="I19" t="n">
-        <v>1.872023287304437</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J19" t="n">
-        <v>4.401065630401027</v>
+        <v>4.40106563040102</v>
       </c>
       <c r="K19" t="n">
-        <v>7.232302784688842</v>
+        <v>7.232302784688829</v>
       </c>
       <c r="L19" t="n">
-        <v>9.254857569702766</v>
+        <v>9.254857569702752</v>
       </c>
       <c r="M19" t="n">
-        <v>9.757949680468679</v>
+        <v>9.757949680468663</v>
       </c>
       <c r="N19" t="n">
-        <v>9.525927447157072</v>
+        <v>9.525927447157056</v>
       </c>
       <c r="O19" t="n">
-        <v>8.798735813485303</v>
+        <v>8.798735813485289</v>
       </c>
       <c r="P19" t="n">
-        <v>7.528838517018805</v>
+        <v>7.528838517018793</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.212577539105551</v>
+        <v>5.212577539105542</v>
       </c>
       <c r="R19" t="n">
-        <v>2.798980404778639</v>
+        <v>2.798980404778634</v>
       </c>
       <c r="S19" t="n">
-        <v>1.084845417703326</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2659767064791671</v>
+        <v>0.2659767064791667</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003395447316755329</v>
+        <v>0.003395447316755324</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1387754012208206</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H20" t="n">
-        <v>1.421233577752729</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I20" t="n">
-        <v>5.350138655565691</v>
+        <v>5.350138655565682</v>
       </c>
       <c r="J20" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65275144304297</v>
+        <v>17.65275144304294</v>
       </c>
       <c r="L20" t="n">
-        <v>21.89979912815466</v>
+        <v>21.89979912815463</v>
       </c>
       <c r="M20" t="n">
-        <v>24.36774616961543</v>
+        <v>24.36774616961539</v>
       </c>
       <c r="N20" t="n">
-        <v>24.76204177833409</v>
+        <v>24.76204177833405</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244455</v>
+        <v>23.38209388244451</v>
       </c>
       <c r="P20" t="n">
-        <v>19.95607616480554</v>
+        <v>19.95607616480551</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.9861821085849</v>
+        <v>14.98618210858487</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937379</v>
+        <v>8.717350296937363</v>
       </c>
       <c r="S20" t="n">
-        <v>3.162344455319452</v>
+        <v>3.162344455319447</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6074893188441424</v>
+        <v>0.6074893188441414</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07425138566263062</v>
+        <v>0.0742513856626305</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7171120667943537</v>
+        <v>0.7171120667943525</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805484</v>
+        <v>2.55646218180548</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257572</v>
+        <v>7.01512762525756</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465382</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L21" t="n">
-        <v>16.12199494398478</v>
+        <v>16.12199494398475</v>
       </c>
       <c r="M21" t="n">
-        <v>18.81360767425513</v>
+        <v>18.8136076742551</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775585</v>
+        <v>19.31154788775581</v>
       </c>
       <c r="O21" t="n">
-        <v>17.66629350017861</v>
+        <v>17.66629350017858</v>
       </c>
       <c r="P21" t="n">
-        <v>14.1787580218404</v>
+        <v>14.17875802184038</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040357</v>
+        <v>9.478124247040343</v>
       </c>
       <c r="R21" t="n">
-        <v>4.61009919052719</v>
+        <v>4.610099190527182</v>
       </c>
       <c r="S21" t="n">
-        <v>1.379186922286142</v>
+        <v>1.37918692228614</v>
       </c>
       <c r="T21" t="n">
-        <v>0.299285190455954</v>
+        <v>0.2992851904559535</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004884959583067805</v>
+        <v>0.004884959583067798</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06224986747384763</v>
+        <v>0.06224986747384753</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5534579126311184</v>
+        <v>0.5534579126311175</v>
       </c>
       <c r="I22" t="n">
-        <v>1.872023287304437</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J22" t="n">
-        <v>4.401065630401027</v>
+        <v>4.40106563040102</v>
       </c>
       <c r="K22" t="n">
-        <v>7.232302784688842</v>
+        <v>7.232302784688829</v>
       </c>
       <c r="L22" t="n">
-        <v>9.254857569702766</v>
+        <v>9.254857569702752</v>
       </c>
       <c r="M22" t="n">
-        <v>9.757949680468679</v>
+        <v>9.757949680468663</v>
       </c>
       <c r="N22" t="n">
-        <v>9.525927447157072</v>
+        <v>9.525927447157056</v>
       </c>
       <c r="O22" t="n">
-        <v>8.798735813485303</v>
+        <v>8.798735813485289</v>
       </c>
       <c r="P22" t="n">
-        <v>7.528838517018805</v>
+        <v>7.528838517018793</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.212577539105551</v>
+        <v>5.212577539105542</v>
       </c>
       <c r="R22" t="n">
-        <v>2.798980404778639</v>
+        <v>2.798980404778634</v>
       </c>
       <c r="S22" t="n">
-        <v>1.084845417703326</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2659767064791671</v>
+        <v>0.2659767064791667</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003395447316755329</v>
+        <v>0.003395447316755324</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1387754012208206</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H23" t="n">
-        <v>1.421233577752729</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I23" t="n">
-        <v>5.350138655565691</v>
+        <v>5.350138655565682</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K23" t="n">
-        <v>17.65275144304297</v>
+        <v>17.65275144304294</v>
       </c>
       <c r="L23" t="n">
-        <v>21.89979912815466</v>
+        <v>21.89979912815463</v>
       </c>
       <c r="M23" t="n">
-        <v>24.36774616961543</v>
+        <v>24.36774616961539</v>
       </c>
       <c r="N23" t="n">
-        <v>24.76204177833409</v>
+        <v>24.76204177833405</v>
       </c>
       <c r="O23" t="n">
-        <v>23.38209388244455</v>
+        <v>23.38209388244451</v>
       </c>
       <c r="P23" t="n">
-        <v>19.95607616480554</v>
+        <v>19.95607616480551</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.9861821085849</v>
+        <v>14.98618210858487</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937379</v>
+        <v>8.717350296937363</v>
       </c>
       <c r="S23" t="n">
-        <v>3.162344455319452</v>
+        <v>3.162344455319447</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6074893188441424</v>
+        <v>0.6074893188441414</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07425138566263062</v>
+        <v>0.0742513856626305</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7171120667943537</v>
+        <v>0.7171120667943525</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805484</v>
+        <v>2.55646218180548</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257572</v>
+        <v>7.01512762525756</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98997046465382</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398478</v>
+        <v>16.12199494398475</v>
       </c>
       <c r="M24" t="n">
-        <v>18.81360767425513</v>
+        <v>18.8136076742551</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775585</v>
+        <v>19.31154788775581</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017861</v>
+        <v>17.66629350017858</v>
       </c>
       <c r="P24" t="n">
-        <v>14.1787580218404</v>
+        <v>14.17875802184038</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040357</v>
+        <v>9.478124247040343</v>
       </c>
       <c r="R24" t="n">
-        <v>4.61009919052719</v>
+        <v>4.610099190527182</v>
       </c>
       <c r="S24" t="n">
-        <v>1.379186922286142</v>
+        <v>1.37918692228614</v>
       </c>
       <c r="T24" t="n">
-        <v>0.299285190455954</v>
+        <v>0.2992851904559535</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004884959583067805</v>
+        <v>0.004884959583067798</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06224986747384763</v>
+        <v>0.06224986747384753</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5534579126311184</v>
+        <v>0.5534579126311175</v>
       </c>
       <c r="I25" t="n">
-        <v>1.872023287304437</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J25" t="n">
-        <v>4.401065630401027</v>
+        <v>4.40106563040102</v>
       </c>
       <c r="K25" t="n">
-        <v>7.232302784688842</v>
+        <v>7.232302784688829</v>
       </c>
       <c r="L25" t="n">
-        <v>9.254857569702766</v>
+        <v>9.254857569702752</v>
       </c>
       <c r="M25" t="n">
-        <v>9.757949680468679</v>
+        <v>9.757949680468663</v>
       </c>
       <c r="N25" t="n">
-        <v>9.525927447157072</v>
+        <v>9.525927447157056</v>
       </c>
       <c r="O25" t="n">
-        <v>8.798735813485303</v>
+        <v>8.798735813485289</v>
       </c>
       <c r="P25" t="n">
-        <v>7.528838517018805</v>
+        <v>7.528838517018793</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.212577539105551</v>
+        <v>5.212577539105542</v>
       </c>
       <c r="R25" t="n">
-        <v>2.798980404778639</v>
+        <v>2.798980404778634</v>
       </c>
       <c r="S25" t="n">
-        <v>1.084845417703326</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2659767064791671</v>
+        <v>0.2659767064791667</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003395447316755329</v>
+        <v>0.003395447316755324</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1387754012208206</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H26" t="n">
-        <v>1.421233577752729</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I26" t="n">
-        <v>5.350138655565691</v>
+        <v>5.350138655565682</v>
       </c>
       <c r="J26" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K26" t="n">
-        <v>17.65275144304297</v>
+        <v>17.65275144304294</v>
       </c>
       <c r="L26" t="n">
-        <v>21.89979912815466</v>
+        <v>21.89979912815463</v>
       </c>
       <c r="M26" t="n">
-        <v>24.36774616961543</v>
+        <v>24.36774616961539</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76204177833409</v>
+        <v>24.76204177833405</v>
       </c>
       <c r="O26" t="n">
-        <v>23.38209388244455</v>
+        <v>23.38209388244451</v>
       </c>
       <c r="P26" t="n">
-        <v>19.95607616480554</v>
+        <v>19.95607616480551</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.9861821085849</v>
+        <v>14.98618210858487</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937379</v>
+        <v>8.717350296937363</v>
       </c>
       <c r="S26" t="n">
-        <v>3.162344455319452</v>
+        <v>3.162344455319447</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6074893188441424</v>
+        <v>0.6074893188441414</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07425138566263062</v>
+        <v>0.0742513856626305</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7171120667943537</v>
+        <v>0.7171120667943525</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805484</v>
+        <v>2.55646218180548</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257572</v>
+        <v>7.01512762525756</v>
       </c>
       <c r="K27" t="n">
-        <v>11.98997046465382</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398478</v>
+        <v>16.12199494398475</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425513</v>
+        <v>18.8136076742551</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775585</v>
+        <v>19.31154788775581</v>
       </c>
       <c r="O27" t="n">
-        <v>17.66629350017861</v>
+        <v>17.66629350017858</v>
       </c>
       <c r="P27" t="n">
-        <v>14.1787580218404</v>
+        <v>14.17875802184038</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040357</v>
+        <v>9.478124247040343</v>
       </c>
       <c r="R27" t="n">
-        <v>4.61009919052719</v>
+        <v>4.610099190527182</v>
       </c>
       <c r="S27" t="n">
-        <v>1.379186922286142</v>
+        <v>1.37918692228614</v>
       </c>
       <c r="T27" t="n">
-        <v>0.299285190455954</v>
+        <v>0.2992851904559535</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004884959583067805</v>
+        <v>0.004884959583067798</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06224986747384763</v>
+        <v>0.06224986747384753</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5534579126311184</v>
+        <v>0.5534579126311175</v>
       </c>
       <c r="I28" t="n">
-        <v>1.872023287304437</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J28" t="n">
-        <v>4.401065630401027</v>
+        <v>4.40106563040102</v>
       </c>
       <c r="K28" t="n">
-        <v>7.232302784688842</v>
+        <v>7.232302784688829</v>
       </c>
       <c r="L28" t="n">
-        <v>9.254857569702766</v>
+        <v>9.254857569702752</v>
       </c>
       <c r="M28" t="n">
-        <v>9.757949680468679</v>
+        <v>9.757949680468663</v>
       </c>
       <c r="N28" t="n">
-        <v>9.525927447157072</v>
+        <v>9.525927447157056</v>
       </c>
       <c r="O28" t="n">
-        <v>8.798735813485303</v>
+        <v>8.798735813485289</v>
       </c>
       <c r="P28" t="n">
-        <v>7.528838517018805</v>
+        <v>7.528838517018793</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.212577539105551</v>
+        <v>5.212577539105542</v>
       </c>
       <c r="R28" t="n">
-        <v>2.798980404778639</v>
+        <v>2.798980404778634</v>
       </c>
       <c r="S28" t="n">
-        <v>1.084845417703326</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2659767064791671</v>
+        <v>0.2659767064791667</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003395447316755329</v>
+        <v>0.003395447316755324</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1387754012208206</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H29" t="n">
-        <v>1.421233577752729</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I29" t="n">
-        <v>5.350138655565691</v>
+        <v>5.350138655565682</v>
       </c>
       <c r="J29" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K29" t="n">
-        <v>17.65275144304297</v>
+        <v>17.65275144304294</v>
       </c>
       <c r="L29" t="n">
-        <v>21.89979912815466</v>
+        <v>21.89979912815463</v>
       </c>
       <c r="M29" t="n">
-        <v>24.36774616961543</v>
+        <v>24.36774616961539</v>
       </c>
       <c r="N29" t="n">
-        <v>24.76204177833409</v>
+        <v>24.76204177833405</v>
       </c>
       <c r="O29" t="n">
-        <v>23.38209388244455</v>
+        <v>23.38209388244451</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480554</v>
+        <v>19.95607616480551</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.9861821085849</v>
+        <v>14.98618210858487</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937379</v>
+        <v>8.717350296937363</v>
       </c>
       <c r="S29" t="n">
-        <v>3.162344455319452</v>
+        <v>3.162344455319447</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6074893188441424</v>
+        <v>0.6074893188441414</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07425138566263062</v>
+        <v>0.0742513856626305</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7171120667943537</v>
+        <v>0.7171120667943525</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805484</v>
+        <v>2.55646218180548</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257572</v>
+        <v>7.01512762525756</v>
       </c>
       <c r="K30" t="n">
-        <v>11.98997046465382</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398478</v>
+        <v>16.12199494398475</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425513</v>
+        <v>18.8136076742551</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775585</v>
+        <v>19.31154788775581</v>
       </c>
       <c r="O30" t="n">
-        <v>17.66629350017861</v>
+        <v>17.66629350017858</v>
       </c>
       <c r="P30" t="n">
-        <v>14.1787580218404</v>
+        <v>14.17875802184038</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040357</v>
+        <v>9.478124247040343</v>
       </c>
       <c r="R30" t="n">
-        <v>4.61009919052719</v>
+        <v>4.610099190527182</v>
       </c>
       <c r="S30" t="n">
-        <v>1.379186922286142</v>
+        <v>1.37918692228614</v>
       </c>
       <c r="T30" t="n">
-        <v>0.299285190455954</v>
+        <v>0.2992851904559535</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004884959583067805</v>
+        <v>0.004884959583067798</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06224986747384763</v>
+        <v>0.06224986747384753</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5534579126311184</v>
+        <v>0.5534579126311175</v>
       </c>
       <c r="I31" t="n">
-        <v>1.872023287304437</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J31" t="n">
-        <v>4.401065630401027</v>
+        <v>4.40106563040102</v>
       </c>
       <c r="K31" t="n">
-        <v>7.232302784688842</v>
+        <v>7.232302784688829</v>
       </c>
       <c r="L31" t="n">
-        <v>9.254857569702766</v>
+        <v>9.254857569702752</v>
       </c>
       <c r="M31" t="n">
-        <v>9.757949680468679</v>
+        <v>9.757949680468663</v>
       </c>
       <c r="N31" t="n">
-        <v>9.525927447157072</v>
+        <v>9.525927447157056</v>
       </c>
       <c r="O31" t="n">
-        <v>8.798735813485303</v>
+        <v>8.798735813485289</v>
       </c>
       <c r="P31" t="n">
-        <v>7.528838517018805</v>
+        <v>7.528838517018793</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.212577539105551</v>
+        <v>5.212577539105542</v>
       </c>
       <c r="R31" t="n">
-        <v>2.798980404778639</v>
+        <v>2.798980404778634</v>
       </c>
       <c r="S31" t="n">
-        <v>1.084845417703326</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2659767064791671</v>
+        <v>0.2659767064791667</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003395447316755329</v>
+        <v>0.003395447316755324</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1387754012208206</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H32" t="n">
-        <v>1.421233577752729</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I32" t="n">
-        <v>5.350138655565691</v>
+        <v>5.350138655565682</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K32" t="n">
-        <v>17.65275144304297</v>
+        <v>17.65275144304294</v>
       </c>
       <c r="L32" t="n">
-        <v>21.89979912815466</v>
+        <v>21.89979912815463</v>
       </c>
       <c r="M32" t="n">
-        <v>24.36774616961543</v>
+        <v>24.36774616961539</v>
       </c>
       <c r="N32" t="n">
-        <v>24.76204177833409</v>
+        <v>24.76204177833405</v>
       </c>
       <c r="O32" t="n">
-        <v>23.38209388244455</v>
+        <v>23.38209388244451</v>
       </c>
       <c r="P32" t="n">
-        <v>19.95607616480554</v>
+        <v>19.95607616480551</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.9861821085849</v>
+        <v>14.98618210858487</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937379</v>
+        <v>8.717350296937363</v>
       </c>
       <c r="S32" t="n">
-        <v>3.162344455319452</v>
+        <v>3.162344455319447</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6074893188441424</v>
+        <v>0.6074893188441414</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07425138566263062</v>
+        <v>0.0742513856626305</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7171120667943537</v>
+        <v>0.7171120667943525</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805484</v>
+        <v>2.55646218180548</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257572</v>
+        <v>7.01512762525756</v>
       </c>
       <c r="K33" t="n">
-        <v>11.98997046465382</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L33" t="n">
-        <v>16.12199494398478</v>
+        <v>16.12199494398475</v>
       </c>
       <c r="M33" t="n">
-        <v>18.81360767425513</v>
+        <v>18.8136076742551</v>
       </c>
       <c r="N33" t="n">
-        <v>19.31154788775585</v>
+        <v>19.31154788775581</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017861</v>
+        <v>17.66629350017858</v>
       </c>
       <c r="P33" t="n">
-        <v>14.1787580218404</v>
+        <v>14.17875802184038</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040357</v>
+        <v>9.478124247040343</v>
       </c>
       <c r="R33" t="n">
-        <v>4.61009919052719</v>
+        <v>4.610099190527182</v>
       </c>
       <c r="S33" t="n">
-        <v>1.379186922286142</v>
+        <v>1.37918692228614</v>
       </c>
       <c r="T33" t="n">
-        <v>0.299285190455954</v>
+        <v>0.2992851904559535</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004884959583067805</v>
+        <v>0.004884959583067798</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06224986747384763</v>
+        <v>0.06224986747384753</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5534579126311184</v>
+        <v>0.5534579126311175</v>
       </c>
       <c r="I34" t="n">
-        <v>1.872023287304437</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J34" t="n">
-        <v>4.401065630401027</v>
+        <v>4.40106563040102</v>
       </c>
       <c r="K34" t="n">
-        <v>7.232302784688842</v>
+        <v>7.232302784688829</v>
       </c>
       <c r="L34" t="n">
-        <v>9.254857569702766</v>
+        <v>9.254857569702752</v>
       </c>
       <c r="M34" t="n">
-        <v>9.757949680468679</v>
+        <v>9.757949680468663</v>
       </c>
       <c r="N34" t="n">
-        <v>9.525927447157072</v>
+        <v>9.525927447157056</v>
       </c>
       <c r="O34" t="n">
-        <v>8.798735813485303</v>
+        <v>8.798735813485289</v>
       </c>
       <c r="P34" t="n">
-        <v>7.528838517018805</v>
+        <v>7.528838517018793</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.212577539105551</v>
+        <v>5.212577539105542</v>
       </c>
       <c r="R34" t="n">
-        <v>2.798980404778639</v>
+        <v>2.798980404778634</v>
       </c>
       <c r="S34" t="n">
-        <v>1.084845417703326</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2659767064791671</v>
+        <v>0.2659767064791667</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003395447316755329</v>
+        <v>0.003395447316755324</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1387754012208206</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H35" t="n">
-        <v>1.421233577752729</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I35" t="n">
-        <v>5.350138655565691</v>
+        <v>5.350138655565682</v>
       </c>
       <c r="J35" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K35" t="n">
-        <v>17.65275144304297</v>
+        <v>17.65275144304294</v>
       </c>
       <c r="L35" t="n">
-        <v>21.89979912815466</v>
+        <v>21.89979912815463</v>
       </c>
       <c r="M35" t="n">
-        <v>24.36774616961543</v>
+        <v>24.36774616961539</v>
       </c>
       <c r="N35" t="n">
-        <v>24.76204177833409</v>
+        <v>24.76204177833405</v>
       </c>
       <c r="O35" t="n">
-        <v>23.38209388244455</v>
+        <v>23.38209388244451</v>
       </c>
       <c r="P35" t="n">
-        <v>19.95607616480554</v>
+        <v>19.95607616480551</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.9861821085849</v>
+        <v>14.98618210858487</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937379</v>
+        <v>8.717350296937363</v>
       </c>
       <c r="S35" t="n">
-        <v>3.162344455319452</v>
+        <v>3.162344455319447</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6074893188441424</v>
+        <v>0.6074893188441414</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07425138566263062</v>
+        <v>0.0742513856626305</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7171120667943537</v>
+        <v>0.7171120667943525</v>
       </c>
       <c r="I36" t="n">
-        <v>2.556462181805484</v>
+        <v>2.55646218180548</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257572</v>
+        <v>7.01512762525756</v>
       </c>
       <c r="K36" t="n">
-        <v>11.98997046465382</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L36" t="n">
-        <v>16.12199494398478</v>
+        <v>16.12199494398475</v>
       </c>
       <c r="M36" t="n">
-        <v>18.81360767425513</v>
+        <v>18.8136076742551</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775585</v>
+        <v>19.31154788775581</v>
       </c>
       <c r="O36" t="n">
-        <v>17.66629350017861</v>
+        <v>17.66629350017858</v>
       </c>
       <c r="P36" t="n">
-        <v>14.1787580218404</v>
+        <v>14.17875802184038</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040357</v>
+        <v>9.478124247040343</v>
       </c>
       <c r="R36" t="n">
-        <v>4.61009919052719</v>
+        <v>4.610099190527182</v>
       </c>
       <c r="S36" t="n">
-        <v>1.379186922286142</v>
+        <v>1.37918692228614</v>
       </c>
       <c r="T36" t="n">
-        <v>0.299285190455954</v>
+        <v>0.2992851904559535</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004884959583067805</v>
+        <v>0.004884959583067798</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06224986747384763</v>
+        <v>0.06224986747384753</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5534579126311184</v>
+        <v>0.5534579126311175</v>
       </c>
       <c r="I37" t="n">
-        <v>1.872023287304437</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J37" t="n">
-        <v>4.401065630401027</v>
+        <v>4.40106563040102</v>
       </c>
       <c r="K37" t="n">
-        <v>7.232302784688842</v>
+        <v>7.232302784688829</v>
       </c>
       <c r="L37" t="n">
-        <v>9.254857569702766</v>
+        <v>9.254857569702752</v>
       </c>
       <c r="M37" t="n">
-        <v>9.757949680468679</v>
+        <v>9.757949680468663</v>
       </c>
       <c r="N37" t="n">
-        <v>9.525927447157072</v>
+        <v>9.525927447157056</v>
       </c>
       <c r="O37" t="n">
-        <v>8.798735813485303</v>
+        <v>8.798735813485289</v>
       </c>
       <c r="P37" t="n">
-        <v>7.528838517018805</v>
+        <v>7.528838517018793</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.212577539105551</v>
+        <v>5.212577539105542</v>
       </c>
       <c r="R37" t="n">
-        <v>2.798980404778639</v>
+        <v>2.798980404778634</v>
       </c>
       <c r="S37" t="n">
-        <v>1.084845417703326</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2659767064791671</v>
+        <v>0.2659767064791667</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003395447316755329</v>
+        <v>0.003395447316755324</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1387754012208206</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H38" t="n">
-        <v>1.421233577752729</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I38" t="n">
-        <v>5.350138655565691</v>
+        <v>5.350138655565682</v>
       </c>
       <c r="J38" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K38" t="n">
-        <v>17.65275144304297</v>
+        <v>17.65275144304294</v>
       </c>
       <c r="L38" t="n">
-        <v>21.89979912815466</v>
+        <v>21.89979912815463</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961543</v>
+        <v>24.36774616961539</v>
       </c>
       <c r="N38" t="n">
-        <v>24.76204177833409</v>
+        <v>24.76204177833405</v>
       </c>
       <c r="O38" t="n">
-        <v>23.38209388244455</v>
+        <v>23.38209388244451</v>
       </c>
       <c r="P38" t="n">
-        <v>19.95607616480554</v>
+        <v>19.95607616480551</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.9861821085849</v>
+        <v>14.98618210858487</v>
       </c>
       <c r="R38" t="n">
-        <v>8.717350296937379</v>
+        <v>8.717350296937363</v>
       </c>
       <c r="S38" t="n">
-        <v>3.162344455319452</v>
+        <v>3.162344455319447</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6074893188441424</v>
+        <v>0.6074893188441414</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07425138566263062</v>
+        <v>0.0742513856626305</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7171120667943537</v>
+        <v>0.7171120667943525</v>
       </c>
       <c r="I39" t="n">
-        <v>2.556462181805484</v>
+        <v>2.55646218180548</v>
       </c>
       <c r="J39" t="n">
-        <v>7.015127625257572</v>
+        <v>7.01512762525756</v>
       </c>
       <c r="K39" t="n">
-        <v>11.98997046465382</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398478</v>
+        <v>16.12199494398475</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425513</v>
+        <v>18.8136076742551</v>
       </c>
       <c r="N39" t="n">
-        <v>19.31154788775585</v>
+        <v>19.31154788775581</v>
       </c>
       <c r="O39" t="n">
-        <v>17.66629350017861</v>
+        <v>17.66629350017858</v>
       </c>
       <c r="P39" t="n">
-        <v>14.1787580218404</v>
+        <v>14.17875802184038</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.478124247040357</v>
+        <v>9.478124247040343</v>
       </c>
       <c r="R39" t="n">
-        <v>4.61009919052719</v>
+        <v>4.610099190527182</v>
       </c>
       <c r="S39" t="n">
-        <v>1.379186922286142</v>
+        <v>1.37918692228614</v>
       </c>
       <c r="T39" t="n">
-        <v>0.299285190455954</v>
+        <v>0.2992851904559535</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004884959583067805</v>
+        <v>0.004884959583067798</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06224986747384763</v>
+        <v>0.06224986747384753</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5534579126311184</v>
+        <v>0.5534579126311175</v>
       </c>
       <c r="I40" t="n">
-        <v>1.872023287304437</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J40" t="n">
-        <v>4.401065630401027</v>
+        <v>4.40106563040102</v>
       </c>
       <c r="K40" t="n">
-        <v>7.232302784688842</v>
+        <v>7.232302784688829</v>
       </c>
       <c r="L40" t="n">
-        <v>9.254857569702766</v>
+        <v>9.254857569702752</v>
       </c>
       <c r="M40" t="n">
-        <v>9.757949680468679</v>
+        <v>9.757949680468663</v>
       </c>
       <c r="N40" t="n">
-        <v>9.525927447157072</v>
+        <v>9.525927447157056</v>
       </c>
       <c r="O40" t="n">
-        <v>8.798735813485303</v>
+        <v>8.798735813485289</v>
       </c>
       <c r="P40" t="n">
-        <v>7.528838517018805</v>
+        <v>7.528838517018793</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.212577539105551</v>
+        <v>5.212577539105542</v>
       </c>
       <c r="R40" t="n">
-        <v>2.798980404778639</v>
+        <v>2.798980404778634</v>
       </c>
       <c r="S40" t="n">
-        <v>1.084845417703326</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2659767064791671</v>
+        <v>0.2659767064791667</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003395447316755329</v>
+        <v>0.003395447316755324</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1387754012208206</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H41" t="n">
-        <v>1.421233577752729</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I41" t="n">
-        <v>5.350138655565691</v>
+        <v>5.350138655565682</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K41" t="n">
-        <v>17.65275144304297</v>
+        <v>17.65275144304294</v>
       </c>
       <c r="L41" t="n">
-        <v>21.89979912815466</v>
+        <v>21.89979912815463</v>
       </c>
       <c r="M41" t="n">
-        <v>24.36774616961543</v>
+        <v>24.36774616961539</v>
       </c>
       <c r="N41" t="n">
-        <v>24.76204177833409</v>
+        <v>24.76204177833405</v>
       </c>
       <c r="O41" t="n">
-        <v>23.38209388244455</v>
+        <v>23.38209388244451</v>
       </c>
       <c r="P41" t="n">
-        <v>19.95607616480554</v>
+        <v>19.95607616480551</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.9861821085849</v>
+        <v>14.98618210858487</v>
       </c>
       <c r="R41" t="n">
-        <v>8.717350296937379</v>
+        <v>8.717350296937363</v>
       </c>
       <c r="S41" t="n">
-        <v>3.162344455319452</v>
+        <v>3.162344455319447</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6074893188441424</v>
+        <v>0.6074893188441414</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07425138566263062</v>
+        <v>0.0742513856626305</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7171120667943537</v>
+        <v>0.7171120667943525</v>
       </c>
       <c r="I42" t="n">
-        <v>2.556462181805484</v>
+        <v>2.55646218180548</v>
       </c>
       <c r="J42" t="n">
-        <v>7.015127625257572</v>
+        <v>7.01512762525756</v>
       </c>
       <c r="K42" t="n">
-        <v>11.98997046465382</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L42" t="n">
-        <v>16.12199494398478</v>
+        <v>16.12199494398475</v>
       </c>
       <c r="M42" t="n">
-        <v>18.81360767425513</v>
+        <v>18.8136076742551</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775585</v>
+        <v>19.31154788775581</v>
       </c>
       <c r="O42" t="n">
-        <v>17.66629350017861</v>
+        <v>17.66629350017858</v>
       </c>
       <c r="P42" t="n">
-        <v>14.1787580218404</v>
+        <v>14.17875802184038</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.478124247040357</v>
+        <v>9.478124247040343</v>
       </c>
       <c r="R42" t="n">
-        <v>4.61009919052719</v>
+        <v>4.610099190527182</v>
       </c>
       <c r="S42" t="n">
-        <v>1.379186922286142</v>
+        <v>1.37918692228614</v>
       </c>
       <c r="T42" t="n">
-        <v>0.299285190455954</v>
+        <v>0.2992851904559535</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004884959583067805</v>
+        <v>0.004884959583067798</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06224986747384763</v>
+        <v>0.06224986747384753</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5534579126311184</v>
+        <v>0.5534579126311175</v>
       </c>
       <c r="I43" t="n">
-        <v>1.872023287304437</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J43" t="n">
-        <v>4.401065630401027</v>
+        <v>4.40106563040102</v>
       </c>
       <c r="K43" t="n">
-        <v>7.232302784688842</v>
+        <v>7.232302784688829</v>
       </c>
       <c r="L43" t="n">
-        <v>9.254857569702766</v>
+        <v>9.254857569702752</v>
       </c>
       <c r="M43" t="n">
-        <v>9.757949680468679</v>
+        <v>9.757949680468663</v>
       </c>
       <c r="N43" t="n">
-        <v>9.525927447157072</v>
+        <v>9.525927447157056</v>
       </c>
       <c r="O43" t="n">
-        <v>8.798735813485303</v>
+        <v>8.798735813485289</v>
       </c>
       <c r="P43" t="n">
-        <v>7.528838517018805</v>
+        <v>7.528838517018793</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.212577539105551</v>
+        <v>5.212577539105542</v>
       </c>
       <c r="R43" t="n">
-        <v>2.798980404778639</v>
+        <v>2.798980404778634</v>
       </c>
       <c r="S43" t="n">
-        <v>1.084845417703326</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2659767064791671</v>
+        <v>0.2659767064791667</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003395447316755329</v>
+        <v>0.003395447316755324</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1387754012208206</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H44" t="n">
-        <v>1.421233577752729</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I44" t="n">
-        <v>5.350138655565691</v>
+        <v>5.350138655565682</v>
       </c>
       <c r="J44" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K44" t="n">
-        <v>17.65275144304297</v>
+        <v>17.65275144304294</v>
       </c>
       <c r="L44" t="n">
-        <v>21.89979912815466</v>
+        <v>21.89979912815463</v>
       </c>
       <c r="M44" t="n">
-        <v>24.36774616961543</v>
+        <v>24.36774616961539</v>
       </c>
       <c r="N44" t="n">
-        <v>24.76204177833409</v>
+        <v>24.76204177833405</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38209388244455</v>
+        <v>23.38209388244451</v>
       </c>
       <c r="P44" t="n">
-        <v>19.95607616480554</v>
+        <v>19.95607616480551</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.9861821085849</v>
+        <v>14.98618210858487</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937379</v>
+        <v>8.717350296937363</v>
       </c>
       <c r="S44" t="n">
-        <v>3.162344455319452</v>
+        <v>3.162344455319447</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6074893188441424</v>
+        <v>0.6074893188441414</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01110203209766564</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07425138566263062</v>
+        <v>0.0742513856626305</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7171120667943537</v>
+        <v>0.7171120667943525</v>
       </c>
       <c r="I45" t="n">
-        <v>2.556462181805484</v>
+        <v>2.55646218180548</v>
       </c>
       <c r="J45" t="n">
-        <v>7.015127625257572</v>
+        <v>7.01512762525756</v>
       </c>
       <c r="K45" t="n">
-        <v>11.98997046465382</v>
+        <v>11.9899704646538</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398478</v>
+        <v>16.12199494398475</v>
       </c>
       <c r="M45" t="n">
-        <v>18.81360767425513</v>
+        <v>18.8136076742551</v>
       </c>
       <c r="N45" t="n">
-        <v>19.31154788775585</v>
+        <v>19.31154788775581</v>
       </c>
       <c r="O45" t="n">
-        <v>17.66629350017861</v>
+        <v>17.66629350017858</v>
       </c>
       <c r="P45" t="n">
-        <v>14.1787580218404</v>
+        <v>14.17875802184038</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.478124247040357</v>
+        <v>9.478124247040343</v>
       </c>
       <c r="R45" t="n">
-        <v>4.61009919052719</v>
+        <v>4.610099190527182</v>
       </c>
       <c r="S45" t="n">
-        <v>1.379186922286142</v>
+        <v>1.37918692228614</v>
       </c>
       <c r="T45" t="n">
-        <v>0.299285190455954</v>
+        <v>0.2992851904559535</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004884959583067805</v>
+        <v>0.004884959583067798</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06224986747384763</v>
+        <v>0.06224986747384753</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5534579126311184</v>
+        <v>0.5534579126311175</v>
       </c>
       <c r="I46" t="n">
-        <v>1.872023287304437</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J46" t="n">
-        <v>4.401065630401027</v>
+        <v>4.40106563040102</v>
       </c>
       <c r="K46" t="n">
-        <v>7.232302784688842</v>
+        <v>7.232302784688829</v>
       </c>
       <c r="L46" t="n">
-        <v>9.254857569702766</v>
+        <v>9.254857569702752</v>
       </c>
       <c r="M46" t="n">
-        <v>9.757949680468679</v>
+        <v>9.757949680468663</v>
       </c>
       <c r="N46" t="n">
-        <v>9.525927447157072</v>
+        <v>9.525927447157056</v>
       </c>
       <c r="O46" t="n">
-        <v>8.798735813485303</v>
+        <v>8.798735813485289</v>
       </c>
       <c r="P46" t="n">
-        <v>7.528838517018805</v>
+        <v>7.528838517018793</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.212577539105551</v>
+        <v>5.212577539105542</v>
       </c>
       <c r="R46" t="n">
-        <v>2.798980404778639</v>
+        <v>2.798980404778634</v>
       </c>
       <c r="S46" t="n">
-        <v>1.084845417703326</v>
+        <v>1.084845417703324</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2659767064791671</v>
+        <v>0.2659767064791667</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003395447316755329</v>
+        <v>0.003395447316755324</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34871,7 +34871,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34938,7 +34938,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35020,7 +35020,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q6" t="n">
-        <v>52.98895607821123</v>
-      </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,19 +35096,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>224.947097744021</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35330,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35406,10 +35406,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.937517176434294</v>
+        <v>4.937517176434285</v>
       </c>
       <c r="J11" t="n">
-        <v>451.4295881567574</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K11" t="n">
         <v>860.4308241280712</v>
@@ -35418,13 +35418,13 @@
         <v>1107.818956959326</v>
       </c>
       <c r="M11" t="n">
-        <v>979.5457982653097</v>
+        <v>429.1165264295637</v>
       </c>
       <c r="N11" t="n">
         <v>24.76204177833415</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P11" t="n">
         <v>856.6327174106605</v>
@@ -35488,13 +35488,13 @@
         <v>28.88340476812628</v>
       </c>
       <c r="J12" t="n">
-        <v>26.07554913378857</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K12" t="n">
         <v>11.98997046465382</v>
       </c>
       <c r="L12" t="n">
-        <v>980.3068927329786</v>
+        <v>553.1742808470124</v>
       </c>
       <c r="M12" t="n">
         <v>18.81360767425508</v>
@@ -35512,7 +35512,7 @@
         <v>555.679072360248</v>
       </c>
       <c r="R12" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>91.85529306948183</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K13" t="n">
-        <v>284.7660952807855</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L13" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M13" t="n">
         <v>473.8830680450274</v>
       </c>
       <c r="N13" t="n">
-        <v>456.2519912427579</v>
+        <v>456.2519912427576</v>
       </c>
       <c r="O13" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P13" t="n">
         <v>358.5459031335258</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.937517176434294</v>
+        <v>4.937517176434285</v>
       </c>
       <c r="J14" t="n">
-        <v>451.4295881567574</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K14" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L14" t="n">
-        <v>894.2618219736557</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M14" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N14" t="n">
-        <v>24.76204177833415</v>
+        <v>1152.392489423789</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P14" t="n">
-        <v>856.6327174106605</v>
+        <v>856.63271741066</v>
       </c>
       <c r="Q14" t="n">
-        <v>567.0051578243374</v>
+        <v>14.98618210858513</v>
       </c>
       <c r="R14" t="n">
-        <v>179.5800419666912</v>
+        <v>8.717350296937184</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257577</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K15" t="n">
-        <v>11.98997046465382</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L15" t="n">
-        <v>980.3068927329786</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M15" t="n">
         <v>18.81360767425508</v>
@@ -35740,13 +35740,13 @@
         <v>19.31154788775575</v>
       </c>
       <c r="O15" t="n">
-        <v>490.8982641988039</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P15" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R15" t="n">
         <v>122.9664406999614</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.937517176434294</v>
+        <v>4.937517176434285</v>
       </c>
       <c r="J17" t="n">
         <v>451.4295881567574</v>
@@ -35889,13 +35889,13 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L17" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M17" t="n">
-        <v>24.36774616961566</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N17" t="n">
-        <v>160.7223142606445</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O17" t="n">
         <v>1013.462565165582</v>
@@ -35907,7 +35907,7 @@
         <v>567.0051578243374</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>28.88340476812628</v>
+        <v>2.556462181805486</v>
       </c>
       <c r="J18" t="n">
-        <v>334.8518195103205</v>
+        <v>328.9777732763989</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0422563676814</v>
+        <v>699.5995866973582</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398465</v>
       </c>
       <c r="M18" t="n">
         <v>18.81360767425508</v>
@@ -35986,7 +35986,7 @@
         <v>555.679072360248</v>
       </c>
       <c r="R18" t="n">
-        <v>122.9664406999614</v>
+        <v>4.61009919052708</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948168</v>
       </c>
       <c r="K19" t="n">
         <v>284.7660952807854</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.937517176434294</v>
+        <v>4.937517176434285</v>
       </c>
       <c r="J20" t="n">
         <v>451.4295881567574</v>
@@ -36126,19 +36126,19 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L20" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M20" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N20" t="n">
         <v>24.76204177833415</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P20" t="n">
-        <v>643.0755824249904</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q20" t="n">
         <v>567.0051578243374</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257577</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465382</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L21" t="n">
-        <v>980.3068927329786</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M21" t="n">
-        <v>610.4019198823146</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N21" t="n">
         <v>19.31154788775575</v>
@@ -36220,10 +36220,10 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R21" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.937517176434294</v>
+        <v>4.937517176434285</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936563</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K23" t="n">
-        <v>17.65275144304296</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L23" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M23" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N23" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O23" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P23" t="n">
-        <v>521.2040471886203</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257577</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98997046465382</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M24" t="n">
-        <v>550.5447875518114</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775586</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O24" t="n">
-        <v>1041.708323619675</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P24" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R24" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.937517176434294</v>
+        <v>4.937517176434285</v>
       </c>
       <c r="J26" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K26" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L26" t="n">
-        <v>595.4261636283574</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M26" t="n">
-        <v>1193.10293325098</v>
+        <v>429.1165264295628</v>
       </c>
       <c r="N26" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O26" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P26" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R26" t="n">
         <v>179.5800419666912</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805486</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257577</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K27" t="n">
-        <v>11.98997046465382</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425514</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N27" t="n">
-        <v>1265.601721180995</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O27" t="n">
-        <v>208.7929886945585</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P27" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R27" t="n">
         <v>122.9664406999614</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>91.85529306948172</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K28" t="n">
         <v>284.7660952807854</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.937517176434294</v>
+        <v>4.937517176434285</v>
       </c>
       <c r="J29" t="n">
-        <v>11.77838870936563</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K29" t="n">
-        <v>518.9007224668568</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L29" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M29" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N29" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O29" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257577</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K30" t="n">
         <v>11.98997046465382</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425514</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N30" t="n">
-        <v>551.0427277653122</v>
+        <v>556.3638337907834</v>
       </c>
       <c r="O30" t="n">
-        <v>1041.708323619675</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P30" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R30" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>91.85529306948169</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K31" t="n">
         <v>284.7660952807854</v>
@@ -37001,10 +37001,10 @@
         <v>473.8830680450274</v>
       </c>
       <c r="N31" t="n">
-        <v>456.2519912427615</v>
+        <v>456.2519912427576</v>
       </c>
       <c r="O31" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P31" t="n">
         <v>358.5459031335258</v>
@@ -37065,22 +37065,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.937517176434294</v>
+        <v>4.937517176434285</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936563</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K32" t="n">
-        <v>850.9592683023669</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L32" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M32" t="n">
-        <v>24.3677461696152</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N32" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O32" t="n">
         <v>1013.462565165582</v>
@@ -37089,10 +37089,10 @@
         <v>856.63271741066</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937184</v>
+        <v>144.6776227792479</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257577</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K33" t="n">
         <v>11.98997046465382</v>
       </c>
       <c r="L33" t="n">
-        <v>16.12199494398477</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M33" t="n">
-        <v>550.5447875518115</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N33" t="n">
         <v>19.31154788775586</v>
       </c>
       <c r="O33" t="n">
-        <v>1041.708323619675</v>
+        <v>554.7185794032061</v>
       </c>
       <c r="P33" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R33" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>91.85529306948169</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K34" t="n">
         <v>284.7660952807854</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.937517176434294</v>
+        <v>4.937517176434285</v>
       </c>
       <c r="J35" t="n">
-        <v>11.77838870936563</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K35" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L35" t="n">
-        <v>1033.487659195743</v>
+        <v>1072.916537771882</v>
       </c>
       <c r="M35" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N35" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O35" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P35" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q35" t="n">
         <v>567.0051578243374</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.937517176434294</v>
+        <v>4.937517176434285</v>
       </c>
       <c r="J38" t="n">
         <v>451.4295881567574</v>
@@ -37551,7 +37551,7 @@
         <v>1107.818956959326</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961566</v>
+        <v>997.0046598977801</v>
       </c>
       <c r="N38" t="n">
         <v>24.76204177833415</v>
@@ -37560,13 +37560,13 @@
         <v>1013.462565165582</v>
       </c>
       <c r="P38" t="n">
-        <v>856.63271741066</v>
+        <v>19.95607616480538</v>
       </c>
       <c r="Q38" t="n">
-        <v>532.1027386368942</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R38" t="n">
-        <v>179.5800419666912</v>
+        <v>8.717350296937184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>28.88340476812628</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J39" t="n">
-        <v>7.015127625257577</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K39" t="n">
         <v>11.98997046465382</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M39" t="n">
-        <v>883.7025854623455</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N39" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O39" t="n">
-        <v>17.66629350017865</v>
+        <v>554.7185794032061</v>
       </c>
       <c r="P39" t="n">
         <v>14.17875802184039</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K40" t="n">
         <v>284.7660952807854</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.937517176434294</v>
+        <v>4.937517176434285</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936563</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K41" t="n">
         <v>860.4308241280712</v>
@@ -37788,22 +37788,22 @@
         <v>1107.818956959326</v>
       </c>
       <c r="M41" t="n">
-        <v>1193.10293325098</v>
+        <v>599.9792180993168</v>
       </c>
       <c r="N41" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O41" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P41" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q41" t="n">
-        <v>492.673860060755</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R41" t="n">
-        <v>179.5800419666912</v>
+        <v>8.717350296937184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>28.88340476812628</v>
+        <v>2.556462181805486</v>
       </c>
       <c r="J42" t="n">
-        <v>334.8518195103205</v>
+        <v>210.6214317669645</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0422563676814</v>
+        <v>699.5995866973582</v>
       </c>
       <c r="L42" t="n">
         <v>16.12199494398476</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K43" t="n">
         <v>284.7660952807854</v>
@@ -38013,22 +38013,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.937517176434294</v>
+        <v>4.937517176434285</v>
       </c>
       <c r="J44" t="n">
-        <v>122.2032381831835</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K44" t="n">
-        <v>17.65275144304297</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L44" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M44" t="n">
-        <v>24.36774616961543</v>
+        <v>429.1165264295628</v>
       </c>
       <c r="N44" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O44" t="n">
         <v>1013.462565165582</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>28.88340476812628</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J45" t="n">
         <v>334.8518195103205</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948263</v>
       </c>
       <c r="K46" t="n">
         <v>284.7660952807854</v>
